--- a/DDF/Phase2/Common_Data/CommonData_05.xlsx
+++ b/DDF/Phase2/Common_Data/CommonData_05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Bimbo\Bimbo\Bimbo Mobile\DDF\Phase2\Common_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bimbo Project Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7030" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Credentials " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Activation Key</t>
   </si>
@@ -48,13 +48,25 @@
     <t>RetailerCash</t>
   </si>
   <si>
+    <t>Maystore6</t>
+  </si>
+  <si>
     <t>RetailerCredit</t>
   </si>
   <si>
     <t>MayStore3_Credit</t>
   </si>
   <si>
-    <t>MayStore6</t>
+    <t>0009_SD_MUMB_PRO009UP</t>
+  </si>
+  <si>
+    <t>SchemeBuySkuName</t>
+  </si>
+  <si>
+    <t>SchemeGetSkuName1</t>
+  </si>
+  <si>
+    <t>SchemeName</t>
   </si>
   <si>
     <t>Number</t>
@@ -81,7 +93,7 @@
       <sz val="10"/>
       <color rgb="FFFF00CC"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,20 +479,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -488,69 +503,87 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11">
         <v>9</v>
       </c>
     </row>
